--- a/Requirements.xlsx
+++ b/Requirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William Anderson\Desktop\GitHub\2019-rover-code\ArduinoCore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wpa9071/Desktop/Rover_Team/Rover_Team/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40656ED1-C341-4824-A8F1-A45220C49FAA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017A36FB-20CB-D24F-91B5-8B1DC45D9B88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="14400" windowHeight="10755" xr2:uid="{C6A560F9-8541-4338-A35E-7BFE5C788CE2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C6A560F9-8541-4338-A35E-7BFE5C788CE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -184,7 +184,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +196,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -221,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -230,6 +237,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,16 +555,16 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="100" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -564,7 +572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -572,7 +580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -580,7 +588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -588,7 +596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -596,7 +604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -604,7 +612,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
@@ -612,7 +620,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -620,7 +628,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -628,7 +636,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -636,7 +644,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -644,7 +652,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -652,15 +660,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -668,7 +676,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -676,7 +684,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -684,7 +692,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -692,7 +700,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -700,7 +708,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>42</v>
       </c>
@@ -708,7 +716,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
@@ -716,7 +724,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
@@ -724,7 +732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -732,7 +740,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -740,7 +748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -748,7 +756,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>48</v>
       </c>
